--- a/biology/Médecine/Capteur_plan/Capteur_plan.xlsx
+++ b/biology/Médecine/Capteur_plan/Capteur_plan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un capteur plan est un appareil qui permet d'obtenir instantanément une image radiologique numérique lors de la prise d'une radiographie. On fait généralement référence à l'appareil sous les vocables DR pour « Digital Radiography » ; contrairement aux systèmes dits « à cassette » (écran ERLM) nommés CR pour « Computed Radiography ».
 L'appareil se présente sur la forme d'un boîtier rectangulaire dont la surface active varie de 5 × 5 cm2 jusqu'à 60 × 100 cm2 et dont l'épaisseur va de 1 à 10 cm. La taille la plus répandue est celle utilisée en médecine humaine avec 36 × 43 cm2.
